--- a/RkkInfo/RkkInfo/bin/Debug/Отчёт_Отпуск.xlsx
+++ b/RkkInfo/RkkInfo/bin/Debug/Отчёт_Отпуск.xlsx
@@ -5,14 +5,17 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Отчёт_Отклик" sheetId="1" r:id="rId1"/>
+    <sheet name="Отчёт_Отпуск_Больничный" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>Отпуск/Больничный</t>
+  </si>
   <si>
     <t>Наименование</t>
   </si>
@@ -38,7 +41,7 @@
     <t>Статус</t>
   </si>
   <si>
-    <t>Больничный</t>
+    <t>Отпуск</t>
   </si>
   <si>
     <t>Хайрутдинов</t>
@@ -56,7 +59,7 @@
     <t>20.05.2023</t>
   </si>
   <si>
-    <t>26.05.2023</t>
+    <t>25.05.2023</t>
   </si>
   <si>
     <t>В процессе обработки</t>
@@ -67,8 +70,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
@@ -81,7 +89,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -89,12 +97,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" applyFont="1" borderId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" borderId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -105,62 +123,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.9801243373326" customWidth="1"/>
+    <col min="2" max="2" width="12.6600919451032" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.7213832310268" customWidth="1"/>
+    <col min="5" max="5" width="11.1838084629604" customWidth="1"/>
+    <col min="6" max="6" width="12.1700439453125" customWidth="1"/>
+    <col min="7" max="7" width="15.7466801234654" customWidth="1"/>
+    <col min="8" max="8" width="21.1290261404855" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="0" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="G3" s="3" t="s">
         <v>15</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
